--- a/Test_2025-12-25_10-10.xlsx
+++ b/Test_2025-12-25_10-10.xlsx
@@ -44,7 +44,7 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
+    <t>0:1</t>
   </si>
   <si>
     <t>1</t>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>20.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>Thursday, 25 December, 2025 10:10 AM</t>
@@ -727,7 +724,7 @@
         <v>14</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -740,7 +737,7 @@
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -748,13 +745,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
